--- a/Dr_Bannayan/Disease/data/Parameters_Corn.xlsx
+++ b/Dr_Bannayan/Disease/data/Parameters_Corn.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\pooya\w\TeamWork\Dr_Bannayan\Disease\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFEBE08-B5F0-41C3-97AF-CD2BA8CFB43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527F5466-69A5-43F0-B6C4-3D646CA01A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="2076" windowWidth="17280" windowHeight="9072" tabRatio="819" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ipTcof" sheetId="1" r:id="rId1"/>
-    <sheet name="pTcof" sheetId="2" r:id="rId2"/>
-    <sheet name="RcT" sheetId="3" r:id="rId3"/>
-    <sheet name="DVS8" sheetId="4" r:id="rId4"/>
-    <sheet name="RcA" sheetId="5" r:id="rId5"/>
-    <sheet name="Temperatre" sheetId="6" r:id="rId6"/>
-    <sheet name="Fungicide" sheetId="7" r:id="rId7"/>
-    <sheet name="Fungicide_Residual" sheetId="8" r:id="rId8"/>
+    <sheet name="ip_t_cof" sheetId="1" r:id="rId1"/>
+    <sheet name="p_t_cof" sheetId="2" r:id="rId2"/>
+    <sheet name="rc_t_input" sheetId="3" r:id="rId3"/>
+    <sheet name="dvs_8_input" sheetId="4" r:id="rId4"/>
+    <sheet name="rc_a_input" sheetId="5" r:id="rId5"/>
+    <sheet name="temperatre" sheetId="6" r:id="rId6"/>
+    <sheet name="fungicide" sheetId="7" r:id="rId7"/>
+    <sheet name="fungicide_residual" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,6 +29,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,7 +352,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +431,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,6 +462,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -466,7 +471,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +534,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +637,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +716,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +730,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +778,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
